--- a/Interface/Balance_sheet_for_Term_Insurance.xlsx
+++ b/Interface/Balance_sheet_for_Term_Insurance.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negre\PycharmProjects\PFE_IA\Interface\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838E95F-61EE-4F85-BCC4-65C93E977E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +115,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +201,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +253,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +446,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -409,35 +474,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.006630939017420447</v>
+        <v>6.6309390174204468E-3</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.005822981366459627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5.822981366459627E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6.630939017420454e-05</v>
+        <v>6.6309390174204542E-5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>0.0008742670411350312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.7426704113503122E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -445,18 +510,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.006697248407594658</v>
+        <v>6.6972484075946579E-3</v>
       </c>
       <c r="E6">
-        <v>0.006697248407594658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6.6972484075946579E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -464,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -472,54 +537,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.006630939017420447</v>
+        <v>6.6309390174204468E-3</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0.006236713089504967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6.2367130895049673E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>7.510326716742519e-05</v>
+        <v>7.5103267167425189E-5</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>0.001348716894404976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.3487168944049761E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.0008793876993220713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>8.7938769932207131E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>0.007585429983909943</v>
+        <v>7.5854299839099434E-3</v>
       </c>
       <c r="E13">
-        <v>0.007585429983909943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>7.5854299839099434E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -527,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -535,54 +600,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.006630939017420447</v>
+        <v>6.6309390174204468E-3</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>0.006679691337138865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>6.6796913371388652E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>7.988120261857447e-05</v>
+        <v>7.9881202618574469E-5</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>0.001388310127337156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1.388310127337156E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19">
-        <v>0.001357181244437001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1.3571812444370011E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.008068001464476022</v>
+        <v>8.0680014644760219E-3</v>
       </c>
       <c r="E20">
-        <v>0.008068001464476022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>8.0680014644760219E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -590,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -598,54 +663,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.006630939017420447</v>
+        <v>6.6309390174204468E-3</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24">
-        <v>0.007153138700568076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>7.1531387005680756E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>8.028584988442437e-05</v>
+        <v>8.0285849884424373E-5</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>0.0009557321377587865</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>9.5573213775878652E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26">
-        <v>0.00139764597102199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1.3976459710219899E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>0.008108870838326862</v>
+        <v>8.1088708383268617E-3</v>
       </c>
       <c r="E27">
-        <v>0.008108870838326862</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>8.1088708383268617E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -653,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -661,51 +726,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.006630939017420447</v>
+        <v>6.6309390174204468E-3</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31">
-        <v>0.007669492463312601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>7.6694924633126009E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>7.593556894368933e-05</v>
+        <v>7.5935568943689331E-5</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>2.10248485288389e-17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>2.1024848528838901E-17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
-        <v>0.0009626178769484859</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>9.6261787694848586E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0.007669492463312622</v>
+        <v>7.6694924633126218E-3</v>
       </c>
       <c r="E34">
-        <v>0.007669492463312622</v>
+        <v>7.6694924633126218E-3</v>
       </c>
     </row>
   </sheetData>
